--- a/estimate_scenarios.xlsx
+++ b/estimate_scenarios.xlsx
@@ -5,25 +5,38 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-minasyanva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-minasyanva\Downloads\MS Architecture Center Scanner and Estimate Comparison Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE666F-B766-4D92-AE8B-D23046258F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A83DA-46CE-4D62-A612-AE38F9678771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36600" yWindow="3495" windowWidth="22740" windowHeight="16380" xr2:uid="{8CC6B35D-15F8-46B2-8EDB-45E5A707818B}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{8CC6B35D-15F8-46B2-8EDB-45E5A707818B}"/>
   </bookViews>
   <sheets>
     <sheet name="estimate_scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimate_scenarios!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimate_scenarios!$A$1:$D$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>status</t>
   </si>
@@ -91,9 +104,6 @@
     <t>https://learn.microsoft.com/en-us/azure/architecture/networking/architecture/trusted-internet-connections</t>
   </si>
   <si>
-    <t>https://learn.microsoft.com/en-us/azure/architecture/web-apps/guides/networking/access-multitenant-web-app-from-on-premises</t>
-  </si>
-  <si>
     <t>https://learn.microsoft.com/en-us/azure/architecture/ai-ml/architecture/search-blob-metadata</t>
   </si>
   <si>
@@ -134,6 +144,120 @@
   </si>
   <si>
     <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/containers/aks-microservices/aks-microservices </t>
+  </si>
+  <si>
+    <t>estimate_link</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/9ed058e3b57b4386b7ac1bd3f782a344</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/6324d7c192ae4fd59092d5c2c60c07d9</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/375d2b930db14fbe90537421331f41de</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/c42b93df96a64d9d9067d2cbc1c0c4d2</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/6f9f52a0c7be4cbd9ae8bd8b77200396</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/82efdb5321cc4c58aafa84607f68c24a</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/c0979505ef6a45409c218c24ee4033de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://azure.com/e/6cfedbbb9b894042aced62f518a77ec3  </t>
+  </si>
+  <si>
+    <t>https://azure.com/e/0e916a861fac464db61342d378cc0bd6</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/fae03e2386cf46149273a379966e95b1</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/9563539d508a4b68853a6b3c5168431e</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/b798fb70c53e4dd19fdeacea4db78276</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/0ed01ef7a1e54b9bba6f252ca145ea13</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/6835332265044d6d931d68c917979e6d</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/802ca3c87e13413580e49bab4a9f67ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://azure.com/e/c7fa52f13c2f4806ac05316813ed97a0 </t>
+  </si>
+  <si>
+    <t>https://azure.com/e/f5d10c617bfa410cb7566ee7f30a8e2f</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/625cea91d4aa43bca73e0a8235817ba7</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/ed90eb013b60448684b3ef40d123ff13</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/e0b74472f72d48ce891b08b3af105872</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/4f044f65e46f40c7a9d7a4837a17e6d7</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/pricing/calculator/?service=monitor</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/61029210b61b4cce8602cb905d7c0dda</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/0bf78de2bf3b45aa961e0dc2f57eb2fe</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/2554c32b19c24b3d9f90d2a73683bd6a</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/998db680fa18493496b71277c08322e7</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/pricing/calculator/?service=kubernetes-service</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/149812331b124489ad0ae69e1ad3b118</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/containers/aks-multi-region/aks-multi-cluster</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/2e3a4a64be264e8781f719bbd194e904</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/a5e725c0fda44d4286fd1836976f56f8</t>
+  </si>
+  <si>
+    <t>https://azure.com/e/0e2073f20d324e568797b74f56906308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/architecture/web-apps/guides/networking/access-multitenant-web-app-from-on-premises </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This is just for reference. This scenario is already included in calculator using baseline-microsoft-foundry-chat article</t>
+  </si>
+  <si>
+    <t>This article doesn't inlcude the saved estimate link but it was manually provided to us to include in the calculator. We reached out to the team asking to include it in the article</t>
   </si>
 </sst>
 </file>
@@ -694,6 +818,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1013,308 +1141,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
     <col min="2" max="2" width="120.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="150.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}"/>
+  <autoFilter ref="A1:D33" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EF2661BF-6CCD-4FD4-B92C-2D5AB73E3C51}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0F04E605-CBFC-4E80-AD4E-B0381D58AFB6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{95D594C7-5023-4069-9E5D-B9507D9732CA}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{299B1FA9-F49E-4FE2-82B9-C032F59844FF}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{1E74DE10-905B-45AF-9F6C-82DB922A23F0}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{BF63025D-F418-4D5D-8117-599A869E83F5}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{FC67D7A7-CE1E-478B-AC3D-8F0A421D4259}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{780FC094-50DD-4863-9C9B-9099E821A1B8}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{E472E7A0-C4AF-4A6B-8284-AB4557D67775}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{12ED7023-6E11-4308-B2B7-5A5615DDC406}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{088BE0B5-27A6-468F-99FE-D026ACE68FD2}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{46AD3EB2-BD1D-4125-97FD-E5AF69FE43AB}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{3E153494-418D-46C2-BC6C-B30E1446346F}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{2C96F411-97F9-42D9-A8D1-62F919050B9C}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{C70F2697-0D56-4457-842F-0E84AEFDE728}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{32E13CCF-885E-4BE0-9307-02929A07A5C7}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{6F5D40CD-EAB9-4439-9FAF-740932BC6666}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{BB2899DB-9D30-4D1E-80FA-98EEDE0D2AE2}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{64FA0040-8834-4414-BDC2-AA9C7F11974B}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{7C97A060-4CC4-4FC6-9088-345456FA35D3}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{F697FCDF-E5D5-4748-B286-1A98B128607B}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{E4EBBAAB-5D39-4E64-AFC6-5AEFBBB1BF7D}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{69F82C6F-9EC4-4191-ADA7-B8A9496100D1}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{14D136BC-AB9A-4008-8361-A298245E8804}"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://learn.microsoft.com/en-us/azure/architecture/hybrid/hybrid-perf-monitoring" xr:uid="{76F1C5B0-83BC-4C80-BA9D-9B601AEBBA6E}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{1644A356-4CF2-466B-BB23-0B20EF469BFF}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{374BFD96-0F5B-4689-B5E4-E91D308E964A}"/>
-    <hyperlink ref="B29" r:id="rId28" display="https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/containers/aks-microservices/aks-microservices" xr:uid="{D8141E40-740A-4288-99D7-A96CCF528948}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{1C42289A-8476-43D6-A330-E383338E7688}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{274207EF-216F-4DF6-8232-162D85DBDA56}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{C03A1371-2411-42C9-AA92-33BB6EDE6562}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{76A6523C-7646-4EFB-B0A9-E87100B280B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/estimate_scenarios.xlsx
+++ b/estimate_scenarios.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-minasyanva\Downloads\MS Architecture Center Scanner and Estimate Comparison Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A83DA-46CE-4D62-A612-AE38F9678771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867538D9-0A6C-4DF8-8FE9-9BC1FCAAFD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{8CC6B35D-15F8-46B2-8EDB-45E5A707818B}"/>
+    <workbookView xWindow="33735" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{8CC6B35D-15F8-46B2-8EDB-45E5A707818B}"/>
   </bookViews>
   <sheets>
     <sheet name="estimate_scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimate_scenarios!$A$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimate_scenarios!$A$1:$D$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>status</t>
   </si>
@@ -231,15 +231,6 @@
   </si>
   <si>
     <t>https://azure.com/e/149812331b124489ad0ae69e1ad3b118</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/containers/aks-multi-region/aks-multi-cluster</t>
-  </si>
-  <si>
-    <t>https://azure.com/e/2e3a4a64be264e8781f719bbd194e904</t>
   </si>
   <si>
     <t>https://azure.com/e/a5e725c0fda44d4286fd1836976f56f8</t>
@@ -818,10 +809,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,18 +1153,18 @@
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1185,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1196,10 +1183,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1207,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1218,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1229,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1240,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1251,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1262,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1273,10 +1260,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1284,49 +1274,46 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1334,10 +1321,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1345,10 +1332,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1356,10 +1343,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1367,10 +1354,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1378,10 +1365,10 @@
         <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1389,10 +1376,10 @@
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1400,10 +1387,10 @@
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1411,10 +1398,10 @@
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1422,10 +1409,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1433,10 +1420,10 @@
         <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -1444,10 +1431,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1455,10 +1442,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1466,10 +1453,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1477,10 +1464,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1488,10 +1475,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1499,38 +1486,27 @@
         <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D33" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}"/>
+  <autoFilter ref="A1:D32" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}"/>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{76A6523C-7646-4EFB-B0A9-E87100B280B9}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{76A6523C-7646-4EFB-B0A9-E87100B280B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/estimate_scenarios.xlsx
+++ b/estimate_scenarios.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-minasyanva\Downloads\MS Architecture Center Scanner and Estimate Comparison Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867538D9-0A6C-4DF8-8FE9-9BC1FCAAFD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016D6D2-FF5A-45F8-8AD1-A89AF123FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33735" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{8CC6B35D-15F8-46B2-8EDB-45E5A707818B}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{8CC6B35D-15F8-46B2-8EDB-45E5A707818B}"/>
   </bookViews>
   <sheets>
     <sheet name="estimate_scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimate_scenarios!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimate_scenarios!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>status</t>
   </si>
@@ -185,9 +185,6 @@
     <t>https://azure.com/e/b798fb70c53e4dd19fdeacea4db78276</t>
   </si>
   <si>
-    <t>https://azure.com/e/0ed01ef7a1e54b9bba6f252ca145ea13</t>
-  </si>
-  <si>
     <t>https://azure.com/e/6835332265044d6d931d68c917979e6d</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>https://azure.microsoft.com/pricing/calculator/?service=monitor</t>
   </si>
   <si>
-    <t>https://azure.com/e/61029210b61b4cce8602cb905d7c0dda</t>
-  </si>
-  <si>
     <t>https://azure.com/e/0bf78de2bf3b45aa961e0dc2f57eb2fe</t>
   </si>
   <si>
@@ -239,23 +233,35 @@
     <t>https://azure.com/e/0e2073f20d324e568797b74f56906308</t>
   </si>
   <si>
-    <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/architecture/web-apps/guides/networking/access-multitenant-web-app-from-on-premises </t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>This is just for reference. This scenario is already included in calculator using baseline-microsoft-foundry-chat article</t>
   </si>
   <si>
-    <t>This article doesn't inlcude the saved estimate link but it was manually provided to us to include in the calculator. We reached out to the team asking to include it in the article</t>
+    <t>https://learn.microsoft.com/en-us/azure/architecture/web-apps/guides/networking/access-multitenant-web-app-from-on-premises</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/pricing/calculator/?shared-estimate=0ed01ef7a1e54b9bba6f252ca145ea13</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/pricing/calculator/?shared-estimate=61029210b61b4cce8602cb905d7c0dda</t>
+  </si>
+  <si>
+    <t>Need to update the estimate link in the Calculator</t>
+  </si>
+  <si>
+    <t>Scanner needs to be update to show this as match. Small deployment estimate is being used for Pricing calculator</t>
+  </si>
+  <si>
+    <t>This article doesn't inlcude the saved estimate link but it was manually provided to us to include in the calculator. Vahe reached out to the team asking to update the article to include the saved estimate link there as well.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,20 +392,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,7 +694,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -745,15 +737,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -787,7 +776,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1131,7 +1119,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,328 +1141,340 @@
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
@@ -1482,32 +1482,33 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D32" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}"/>
-  <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{76A6523C-7646-4EFB-B0A9-E87100B280B9}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:D1" xr:uid="{1C1F846C-8C34-46B3-86FF-223EECDE71CC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
